--- a/2021년 투자_Last.xlsx
+++ b/2021년 투자_Last.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>섹터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,34 @@
   </si>
   <si>
     <t>네오이뮨택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK바이오사이언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나금융</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -498,13 +526,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,18 +693,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,6 +713,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,54 +1089,54 @@
   <sheetData>
     <row r="1" spans="2:34" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="18" t="s">
+      <c r="T2" s="21"/>
+      <c r="U2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="18" t="s">
+      <c r="V2" s="21"/>
+      <c r="W2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="18" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="18" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="18" t="s">
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="18" t="s">
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="18" t="s">
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="19"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -983,10 +1156,10 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1523,10 +1696,10 @@
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2016,6 +2189,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K2:L2"/>
@@ -2023,13 +2203,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q11"/>
+  <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2190,18 +2363,24 @@
       <c r="B6" s="12"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="32">
         <v>-42493</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1">
+        <v>102000</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2210,22 +2389,20 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5830</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="25">
+        <v>207000</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2234,22 +2411,20 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1">
-        <v>78000</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1">
+        <v>103000</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2262,15 +2437,13 @@
       <c r="B9" s="12"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>25000</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2284,15 +2457,13 @@
       <c r="B10" s="12"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>47500</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2305,22 +2476,15 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <f>SUM(D3:D6)</f>
-        <v>224000</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <f>SUM(G3:G10)</f>
-        <v>265818</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <f>SUM(J3:J10)</f>
-        <v>190100</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2329,10 +2493,133 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
+    <row r="12" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5830</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1">
+        <v>78000</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>47500</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>SUM(D3:D7)</f>
+        <v>224000</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <f>SUM(G3:G15)</f>
+        <v>265818</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <f>SUM(J3:J15)</f>
+        <v>602100</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="H6:H11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021년 투자_Last.xlsx
+++ b/2021년 투자_Last.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
   <si>
     <t>섹터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,14 @@
   </si>
   <si>
     <t>하나금융</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸이버원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,6 +701,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,6 +716,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,9 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,15 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,54 +1097,54 @@
   <sheetData>
     <row r="1" spans="2:34" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="20" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="20" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="20" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="20" t="s">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="20" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="20" t="s">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="20" t="s">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="20" t="s">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="21"/>
+      <c r="AH2" s="22"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1156,10 +1164,10 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1696,10 +1704,10 @@
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2215,7 +2223,7 @@
   <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2231,15 +2239,15 @@
     <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
         <v>81</v>
@@ -2363,16 +2371,16 @@
       <c r="B6" s="12"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="35">
         <v>-42493</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="23" t="s">
         <v>85</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2393,14 +2401,14 @@
       <c r="B7" s="12"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="36"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="18">
         <v>207000</v>
       </c>
       <c r="K7" s="1"/>
@@ -2415,10 +2423,10 @@
       <c r="B8" s="12"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2437,14 +2445,16 @@
       <c r="B9" s="12"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>240000</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2457,10 +2467,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="36"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="1" t="s">
         <v>90</v>
       </c>
@@ -2477,11 +2487,11 @@
       <c r="B11" s="12"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="25" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="18" t="s">
         <v>91</v>
       </c>
       <c r="J11" s="1"/>
@@ -2506,9 +2516,15 @@
       <c r="G12" s="1">
         <v>5830</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="1">
+        <v>21000</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2602,7 +2618,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1">
         <f>SUM(J3:J15)</f>
-        <v>602100</v>
+        <v>863100</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
